--- a/UHH.xlsx
+++ b/UHH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ngoding\Project\Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8302E99-73E7-4845-BD74-554BCACEDC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417E2585-8BF7-42C8-91F4-7C5845EE640F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="2670" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kabupaten/Kota</t>
-  </si>
-  <si>
-    <t>Umur Harapan Hidup Saat Lahir [Metode Baru] (Tahun)</t>
   </si>
   <si>
     <t>2020</t>
@@ -130,10 +127,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -486,25 +481,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>74.38</v>
+      </c>
+      <c r="C2">
+        <v>74.5</v>
+      </c>
+      <c r="D2">
+        <v>74.819999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,291 +513,271 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>74.38</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="C3">
-        <v>74.5</v>
+        <v>73.84</v>
       </c>
       <c r="D3">
-        <v>74.819999999999993</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>73.739999999999995</v>
+        <v>73.61</v>
       </c>
       <c r="C4">
-        <v>73.84</v>
+        <v>73.73</v>
       </c>
       <c r="D4">
-        <v>74.14</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>73.61</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="C5">
-        <v>73.73</v>
+        <v>73.69</v>
       </c>
       <c r="D5">
-        <v>74.06</v>
+        <v>73.930000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>73.650000000000006</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="C6">
-        <v>73.69</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="D6">
-        <v>73.930000000000007</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>72.819999999999993</v>
+        <v>72.37</v>
       </c>
       <c r="C7">
-        <v>72.819999999999993</v>
+        <v>72.53</v>
       </c>
       <c r="D7">
-        <v>73.02</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>72.37</v>
+        <v>71.33</v>
       </c>
       <c r="C8">
-        <v>72.53</v>
+        <v>71.53</v>
       </c>
       <c r="D8">
-        <v>72.89</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>71.33</v>
+        <v>70.86</v>
       </c>
       <c r="C9">
-        <v>71.53</v>
+        <v>70.959999999999994</v>
       </c>
       <c r="D9">
-        <v>71.900000000000006</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>70.86</v>
+        <v>70.28</v>
       </c>
       <c r="C10">
-        <v>70.959999999999994</v>
+        <v>70.38</v>
       </c>
       <c r="D10">
-        <v>71.25</v>
+        <v>70.67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>70.28</v>
+        <v>69.94</v>
       </c>
       <c r="C11">
-        <v>70.38</v>
+        <v>70.12</v>
       </c>
       <c r="D11">
-        <v>70.67</v>
+        <v>70.489999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>69.94</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>70.12</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D12">
-        <v>70.489999999999995</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69.790000000000006</v>
       </c>
       <c r="C13">
-        <v>70.099999999999994</v>
+        <v>69.84</v>
       </c>
       <c r="D13">
-        <v>70.400000000000006</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>69.790000000000006</v>
+        <v>69.47</v>
       </c>
       <c r="C14">
-        <v>69.84</v>
+        <v>69.59</v>
       </c>
       <c r="D14">
-        <v>70.08</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>69.47</v>
+        <v>68.790000000000006</v>
       </c>
       <c r="C15">
-        <v>69.59</v>
+        <v>68.97</v>
       </c>
       <c r="D15">
-        <v>69.900000000000006</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16">
+        <v>68.58</v>
+      </c>
+      <c r="C16">
         <v>68.790000000000006</v>
       </c>
-      <c r="C16">
-        <v>68.97</v>
-      </c>
       <c r="D16">
-        <v>69.34</v>
+        <v>69.19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>68.58</v>
+        <v>67.81</v>
       </c>
       <c r="C17">
-        <v>68.790000000000006</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="D17">
-        <v>69.19</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>67.81</v>
+        <v>67.819999999999993</v>
       </c>
       <c r="C18">
-        <v>68.010000000000005</v>
+        <v>67.94</v>
       </c>
       <c r="D18">
-        <v>68.38</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>67.819999999999993</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C19">
-        <v>67.94</v>
+        <v>67.59</v>
       </c>
       <c r="D19">
-        <v>68.25</v>
+        <v>67.959999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>67.400000000000006</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="C20">
-        <v>67.59</v>
+        <v>66.36</v>
       </c>
       <c r="D20">
-        <v>67.959999999999994</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>66.209999999999994</v>
+        <v>64.73</v>
       </c>
       <c r="C21">
-        <v>66.36</v>
+        <v>64.73</v>
       </c>
       <c r="D21">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>64.73</v>
-      </c>
-      <c r="C22">
-        <v>64.73</v>
-      </c>
-      <c r="D22">
         <v>64.930000000000007</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D22">
-    <sortCondition descending="1" ref="D3:D22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
+    <sortCondition descending="1" ref="D2:D21"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:D2 C1:D1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>